--- a/results/smells_sumary.xlsx
+++ b/results/smells_sumary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="1" state="visible" r:id="rId2"/>
@@ -292,12 +292,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -307,10 +307,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -354,7 +354,7 @@
       </c>
       <c r="E2" s="3" t="n">
         <f aca="false">D2/C18</f>
-        <v>0.000375269725114926</v>
+        <v>0.000371005889718499</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,7 +373,7 @@
       </c>
       <c r="E3" s="3" t="n">
         <f aca="false">D3/C18</f>
-        <v>0.0633267661131438</v>
+        <v>0.0626072438899968</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -392,7 +392,7 @@
       </c>
       <c r="E4" s="3" t="n">
         <f aca="false">D4/C18</f>
-        <v>0.000985083028426682</v>
+        <v>0.000973890460511061</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,7 +411,7 @@
       </c>
       <c r="E5" s="3" t="n">
         <f aca="false">D5/C18</f>
-        <v>0.0200769302936486</v>
+        <v>0.0198488150999397</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -430,7 +430,7 @@
       </c>
       <c r="E6" s="3" t="n">
         <f aca="false">D6/C18</f>
-        <v>0.00783375551177409</v>
+        <v>0.00774474794787367</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,7 +449,7 @@
       </c>
       <c r="E7" s="3" t="n">
         <f aca="false">D7/C18</f>
-        <v>0.0241579885542734</v>
+        <v>0.0238835041506284</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,7 +468,7 @@
       </c>
       <c r="E8" s="3" t="n">
         <f aca="false">D8/C18</f>
-        <v>0.0173562247865653</v>
+        <v>0.0171590223994806</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,17 +523,9 @@
         <v>21508</v>
       </c>
       <c r="C18" s="7" t="n">
-        <v>21318</v>
+        <v>21563</v>
       </c>
       <c r="E18" s="4"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="4"/>
-      <c r="E20" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -553,8 +545,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L26" activeCellId="0" sqref="L26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -598,7 +590,7 @@
       </c>
       <c r="E2" s="3" t="n">
         <f aca="false">D2/C32</f>
-        <v>0.032695374800638</v>
+        <v>0.0323238881417243</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -617,7 +609,7 @@
       </c>
       <c r="E3" s="3" t="n">
         <f aca="false">D3/C32</f>
-        <v>0.069377990430622</v>
+        <v>0.0685897138617075</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,7 +628,7 @@
       </c>
       <c r="E4" s="3" t="n">
         <f aca="false">D4/C32</f>
-        <v>0.304859742940238</v>
+        <v>0.301395909660066</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,7 +647,7 @@
       </c>
       <c r="E5" s="3" t="n">
         <f aca="false">D5/C32</f>
-        <v>0.0116802701942021</v>
+        <v>0.0115475583174883</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,7 +666,7 @@
       </c>
       <c r="E6" s="3" t="n">
         <f aca="false">D6/C32</f>
-        <v>0.000469087156393658</v>
+        <v>0.000463757362148124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,7 +685,7 @@
       </c>
       <c r="E7" s="3" t="n">
         <f aca="false">D7/C32</f>
-        <v>0.0790411858523314</v>
+        <v>0.0781431155219589</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -712,7 +704,7 @@
       </c>
       <c r="E8" s="3" t="n">
         <f aca="false">D8/C32</f>
-        <v>0.123229195984614</v>
+        <v>0.121829059036312</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -731,7 +723,7 @@
       </c>
       <c r="E9" s="3" t="n">
         <f aca="false">D9/C32</f>
-        <v>0.00229852706632892</v>
+        <v>0.00227241107452581</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,7 +742,7 @@
       </c>
       <c r="E10" s="3" t="n">
         <f aca="false">D10/C32</f>
-        <v>0.0301153954404728</v>
+        <v>0.0297732226499096</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,7 +761,7 @@
       </c>
       <c r="E11" s="3" t="n">
         <f aca="false">D11/C32</f>
-        <v>0.0538981142696313</v>
+        <v>0.0532857209108195</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -788,7 +780,7 @@
       </c>
       <c r="E12" s="3" t="n">
         <f aca="false">D12/C32</f>
-        <v>0.00455014541701848</v>
+        <v>0.0044984464128368</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,7 +799,7 @@
       </c>
       <c r="E13" s="3" t="n">
         <f aca="false">D13/C32</f>
-        <v>0.00112580917534478</v>
+        <v>0.0011130176691555</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,7 +818,7 @@
       </c>
       <c r="E14" s="3" t="n">
         <f aca="false">D14/C32</f>
-        <v>0.00497232385777278</v>
+        <v>0.00491582803877012</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -845,7 +837,7 @@
       </c>
       <c r="E15" s="3" t="n">
         <f aca="false">D15/C32</f>
-        <v>0.0308659348907027</v>
+        <v>0.0305152344293466</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,7 +856,7 @@
       </c>
       <c r="E16" s="3" t="n">
         <f aca="false">D16/C32</f>
-        <v>0.0144478844169247</v>
+        <v>0.0142837267541622</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,7 +875,7 @@
       </c>
       <c r="E17" s="3" t="n">
         <f aca="false">D17/C32</f>
-        <v>0.0259405197485693</v>
+        <v>0.0256457821267913</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,7 +894,7 @@
       </c>
       <c r="E18" s="3" t="n">
         <f aca="false">D18/C32</f>
-        <v>0.0922225349469931</v>
+        <v>0.0911746973983212</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -921,7 +913,7 @@
       </c>
       <c r="E19" s="3" t="n">
         <f aca="false">D19/C32</f>
-        <v>0.197579510273009</v>
+        <v>0.19533460093679</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -940,7 +932,7 @@
       </c>
       <c r="E20" s="3" t="n">
         <f aca="false">D20/C32</f>
-        <v>0.00605122431747819</v>
+        <v>0.0059824699717108</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -962,7 +954,7 @@
         <v>21508</v>
       </c>
       <c r="C32" s="7" t="n">
-        <v>21318</v>
+        <v>21563</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +976,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1028,7 +1020,7 @@
       </c>
       <c r="E2" s="3" t="n">
         <f aca="false">D2/C23</f>
-        <v>0.0679238202458017</v>
+        <v>0.0671520660390484</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,7 +1039,7 @@
       </c>
       <c r="E3" s="3" t="n">
         <f aca="false">D3/C23</f>
-        <v>0.0364011633361478</v>
+        <v>0.0359875713026944</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,7 +1058,7 @@
       </c>
       <c r="E4" s="8" t="n">
         <f aca="false">D4/C23</f>
-        <v>0.0034243362416737</v>
+        <v>0.00338542874368131</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,7 +1077,7 @@
       </c>
       <c r="E5" s="3" t="n">
         <f aca="false">D5/C23</f>
-        <v>0.0306313913125059</v>
+        <v>0.0302833557482725</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1104,7 +1096,7 @@
       </c>
       <c r="E6" s="3" t="n">
         <f aca="false">D6/C23</f>
-        <v>0.0484097945398255</v>
+        <v>0.0478597597736864</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1123,7 +1115,7 @@
       </c>
       <c r="E7" s="3" t="n">
         <f aca="false">D7/C23</f>
-        <v>0.167229571254339</v>
+        <v>0.165329499605806</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,7 +1134,7 @@
       </c>
       <c r="E8" s="3" t="n">
         <f aca="false">D8/C23</f>
-        <v>0.145276292335116</v>
+        <v>0.143625655057274</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,7 +1153,7 @@
       </c>
       <c r="E9" s="3" t="n">
         <f aca="false">D9/C23</f>
-        <v>0.411061075147762</v>
+        <v>0.406390576450401</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,7 +1172,7 @@
       </c>
       <c r="E10" s="3" t="n">
         <f aca="false">D10/C23</f>
-        <v>1.16605685336335</v>
+        <v>1.15280805082781</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,7 +1191,7 @@
       </c>
       <c r="E11" s="8" t="n">
         <f aca="false">D11/C23</f>
-        <v>0.025002345435782</v>
+        <v>0.024718267402495</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,7 +1210,7 @@
       </c>
       <c r="E12" s="3" t="n">
         <f aca="false">D12/C23</f>
-        <v>0.0777746505300685</v>
+        <v>0.076890970644159</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,7 +1264,7 @@
         <v>21508</v>
       </c>
       <c r="C23" s="7" t="n">
-        <v>21318</v>
+        <v>21563</v>
       </c>
     </row>
   </sheetData>
@@ -1291,10 +1283,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1338,7 +1330,7 @@
       </c>
       <c r="E2" s="3" t="n">
         <f aca="false">D2/C12</f>
-        <v>1.04887888169622</v>
+        <v>1.03696146176321</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,41 +1385,9 @@
         <v>21508</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>21318</v>
+        <v>21563</v>
       </c>
       <c r="E12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="4"/>
-      <c r="E20" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
